--- a/salida/salida2.xlsx
+++ b/salida/salida2.xlsx
@@ -1,22 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="true" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\learnsoftcuevas\Desktop\Golearsoft\Nueva\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="5175" yWindow="1800" windowWidth="21600" windowHeight="11160"/>
   </bookViews>
   <sheets>
-    <sheet name="MiHoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="camioneros" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Id	Nombre	Edad</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Edad</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>nombre</t>
+  </si>
+  <si>
+    <t>edad</t>
   </si>
   <si>
     <t>1</t>
@@ -56,23 +76,337 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <fonts count="1">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i val="1"/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="0.3999755851924192"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.7999816888943144"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.5999938962981048"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.3999755851924192"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -80,23 +414,223 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.3999755851924192"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="true"/>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="true" applyFill="true"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="42">
+    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="true"/>
+    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="true"/>
+    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="true"/>
+    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="true"/>
+    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="true"/>
+    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="true"/>
+    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="true"/>
+    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="true"/>
+    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="true"/>
+    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="true"/>
+    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="true"/>
+    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="true"/>
+    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="true"/>
+    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="true"/>
+    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="true"/>
+    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="true"/>
+    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="true"/>
+    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="true"/>
+    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="true"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="true"/>
+    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="true"/>
+    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="true"/>
+    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="true"/>
+    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="true"/>
+    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="true"/>
+    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="true"/>
+    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="true"/>
+    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="true"/>
+    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="true"/>
+    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="true"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="true"/>
+    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="true"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="true"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="true"/>
+    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="true"/>
+    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="true"/>
+    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="true"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="true"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="true"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="true"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="true"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
   <themeElements>
     <clrScheme name="Office">
       <dk1>
@@ -112,7 +646,7 @@
         <srgbClr val="E7E6E6"/>
       </lt2>
       <accent1>
-        <srgbClr val="5B9BD5"/>
+        <srgbClr val="4472C4"/>
       </accent1>
       <accent2>
         <srgbClr val="ED7D31"/>
@@ -124,7 +658,7 @@
         <srgbClr val="FFC000"/>
       </accent4>
       <accent5>
-        <srgbClr val="4472C4"/>
+        <srgbClr val="5B9BD5"/>
       </accent5>
       <accent6>
         <srgbClr val="70AD47"/>
@@ -171,6 +705,23 @@
         <font script="Viet" typeface="Times New Roman"/>
         <font script="Uigh" typeface="Microsoft Uighur"/>
         <font script="Geor" typeface="Sylfaen"/>
+        <font script="Armn" typeface="Arial"/>
+        <font script="Bugi" typeface="Leelawadee UI"/>
+        <font script="Bopo" typeface="Microsoft JhengHei"/>
+        <font script="Java" typeface="Javanese Text"/>
+        <font script="Lisu" typeface="Segoe UI"/>
+        <font script="Mymr" typeface="Myanmar Text"/>
+        <font script="Nkoo" typeface="Ebrima"/>
+        <font script="Olck" typeface="Nirmala UI"/>
+        <font script="Osma" typeface="Ebrima"/>
+        <font script="Phag" typeface="Phagspa"/>
+        <font script="Syrn" typeface="Estrangelo Edessa"/>
+        <font script="Syrj" typeface="Estrangelo Edessa"/>
+        <font script="Syre" typeface="Estrangelo Edessa"/>
+        <font script="Sora" typeface="Nirmala UI"/>
+        <font script="Tale" typeface="Microsoft Tai Le"/>
+        <font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <font script="Tfng" typeface="Ebrima"/>
       </majorFont>
       <minorFont>
         <latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -206,6 +757,23 @@
         <font script="Viet" typeface="Arial"/>
         <font script="Uigh" typeface="Microsoft Uighur"/>
         <font script="Geor" typeface="Sylfaen"/>
+        <font script="Armn" typeface="Arial"/>
+        <font script="Bugi" typeface="Leelawadee UI"/>
+        <font script="Bopo" typeface="Microsoft JhengHei"/>
+        <font script="Java" typeface="Javanese Text"/>
+        <font script="Lisu" typeface="Segoe UI"/>
+        <font script="Mymr" typeface="Myanmar Text"/>
+        <font script="Nkoo" typeface="Ebrima"/>
+        <font script="Olck" typeface="Nirmala UI"/>
+        <font script="Osma" typeface="Ebrima"/>
+        <font script="Phag" typeface="Phagspa"/>
+        <font script="Syrn" typeface="Estrangelo Edessa"/>
+        <font script="Syrj" typeface="Estrangelo Edessa"/>
+        <font script="Syre" typeface="Estrangelo Edessa"/>
+        <font script="Sora" typeface="Nirmala UI"/>
+        <font script="Tale" typeface="Microsoft Tai Le"/>
+        <font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <font script="Tfng" typeface="Ebrima"/>
       </minorFont>
     </fontScheme>
     <fmtScheme name="Office">
@@ -348,66 +916,81 @@
   </themeElements>
   <objectDefaults/>
   <extraClrSchemeLst/>
+  <extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </extLst>
 </theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="true" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup horizontalDpi="0" orientation="portrait" paperSize="0" verticalDpi="0"/>
 </worksheet>
 </file>